--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D243DD6F-E88C-49E0-93B6-9422F0387EB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825E32A-5245-4A68-9292-F145316B4E8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDC689"/>
         <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,18 +256,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +277,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFFDC689"/>
@@ -583,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1006,6 +1014,18 @@
         <v>700</v>
       </c>
     </row>
+    <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825E32A-5245-4A68-9292-F145316B4E8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDF912A-D3FD-4AFC-8412-7B7224B4C81F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDF912A-D3FD-4AFC-8412-7B7224B4C81F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717CA18-9E97-483B-A679-A2F875D4F08D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -79,9 +79,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -230,22 +229,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,19 +246,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,24 +601,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>42887</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9">
@@ -632,7 +628,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="11"/>
@@ -644,7 +640,7 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="11">
@@ -654,7 +650,7 @@
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="11"/>
@@ -666,7 +662,7 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="11">
@@ -676,7 +672,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="11"/>
@@ -688,7 +684,7 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="11">
@@ -698,7 +694,7 @@
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="11"/>
@@ -710,7 +706,7 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="11">
@@ -720,7 +716,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="11"/>
@@ -732,7 +728,7 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="11">
@@ -742,7 +738,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="11"/>
@@ -754,7 +750,7 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11">
@@ -764,7 +760,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="11"/>
@@ -776,7 +772,7 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="11">
@@ -786,7 +782,7 @@
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="11"/>
@@ -798,7 +794,7 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="11">
@@ -808,7 +804,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="11"/>
@@ -820,7 +816,7 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="11">
@@ -830,7 +826,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="11"/>
@@ -842,7 +838,7 @@
       <c r="A22" s="1">
         <v>42903</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="11">
@@ -852,7 +848,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="11"/>
@@ -864,7 +860,7 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="11">
@@ -874,7 +870,7 @@
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="11"/>
@@ -886,7 +882,7 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="11">
@@ -896,7 +892,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="11"/>
@@ -908,7 +904,7 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="11">
@@ -918,7 +914,7 @@
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="11"/>
@@ -930,7 +926,7 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="11">
@@ -940,7 +936,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="11"/>
@@ -952,7 +948,7 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="11">
@@ -962,7 +958,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="11"/>
@@ -974,7 +970,7 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="11">
@@ -984,7 +980,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="11"/>
@@ -996,7 +992,7 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="11">
@@ -1006,7 +1002,7 @@
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="11"/>
@@ -1015,16 +1011,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717CA18-9E97-483B-A679-A2F875D4F08D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C65006-8049-4BBC-AAF4-7D9CA43EFF27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +124,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDC689"/>
         <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEF1E6"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,7 +240,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -587,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -618,21 +611,21 @@
       <c r="A2" s="2">
         <v>42887</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>10000</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11">
         <v>10000</v>
       </c>
     </row>
@@ -640,21 +633,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
         <v>50</v>
       </c>
     </row>
@@ -662,21 +655,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>150</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
         <v>150</v>
       </c>
     </row>
@@ -684,21 +677,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>200</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12">
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
         <v>200</v>
       </c>
     </row>
@@ -706,21 +699,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>250</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11">
         <v>250</v>
       </c>
     </row>
@@ -728,21 +721,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>150</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
         <v>150</v>
       </c>
     </row>
@@ -750,21 +743,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>450</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11">
         <v>450</v>
       </c>
     </row>
@@ -772,21 +765,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>40</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11">
         <v>40</v>
       </c>
     </row>
@@ -794,21 +787,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>600</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11">
         <v>600</v>
       </c>
     </row>
@@ -816,21 +809,21 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>500</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11">
         <v>500</v>
       </c>
     </row>
@@ -838,21 +831,21 @@
       <c r="A22" s="1">
         <v>42903</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>30</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12">
+      <c r="C23" s="10"/>
+      <c r="D23" s="11">
         <v>30</v>
       </c>
     </row>
@@ -860,21 +853,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>250</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11">
         <v>250</v>
       </c>
     </row>
@@ -882,21 +875,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>40</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12">
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
         <v>40</v>
       </c>
     </row>
@@ -904,21 +897,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>750</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
         <v>750</v>
       </c>
     </row>
@@ -926,21 +919,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>175</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11">
         <v>175</v>
       </c>
     </row>
@@ -948,21 +941,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>600</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11">
         <v>600</v>
       </c>
     </row>
@@ -970,21 +963,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>1600</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12">
+      <c r="C35" s="10"/>
+      <c r="D35" s="11">
         <v>1600</v>
       </c>
     </row>
@@ -992,35 +985,23 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>700</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12">
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
         <v>700</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C65006-8049-4BBC-AAF4-7D9CA43EFF27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A38A5-C583-4DAC-B79C-9722A9495593}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -246,16 +246,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A38A5-C583-4DAC-B79C-9722A9495593}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D9E82-3EED-4EED-9563-73D691276144}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -73,15 +73,63 @@
   </si>
   <si>
     <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>6/16</t>
+  </si>
+  <si>
+    <t>6/17</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>6/21</t>
+  </si>
+  <si>
+    <t>6/24</t>
+  </si>
+  <si>
+    <t>6/25</t>
+  </si>
+  <si>
+    <t>6/27</t>
+  </si>
+  <si>
+    <t>6/29</t>
+  </si>
+  <si>
+    <t>6/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,7 +200,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color rgb="FFD9D9D9"/>
       </left>
       <right style="thin">
         <color rgb="FFD9D9D9"/>
@@ -165,56 +213,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FFE1A16C"/>
       </bottom>
       <diagonal/>
@@ -223,33 +230,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +249,15 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,9 +267,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFEF1E6"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -583,7 +584,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,413 +594,413 @@
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="3">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>50</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42888</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>150</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42891</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="5">
         <v>200</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42892</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="5">
         <v>250</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42894</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="5">
         <v>150</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42895</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="5">
         <v>450</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42896</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="5">
         <v>40</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42899</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="5">
         <v>600</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11">
+      <c r="C19" s="5"/>
+      <c r="D19" s="6">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42902</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="5">
         <v>500</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42903</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="5">
         <v>30</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42906</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="5">
         <v>250</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42907</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="5">
         <v>40</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42910</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="5">
         <v>750</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42911</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="5">
         <v>175</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11">
+      <c r="C31" s="5"/>
+      <c r="D31" s="6">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42913</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="5">
         <v>600</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="5">
         <v>1600</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="5">
         <v>700</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11">
+      <c r="C37" s="5"/>
+      <c r="D37" s="6">
         <v>700</v>
       </c>
     </row>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D9E82-3EED-4EED-9563-73D691276144}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F896C3A-4361-4061-8830-4DC187DB2116}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -258,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +625,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
@@ -644,7 +647,7 @@
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5"/>
@@ -666,7 +669,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5"/>
@@ -688,7 +691,7 @@
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5"/>
@@ -710,7 +713,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5"/>
@@ -732,7 +735,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
@@ -754,7 +757,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5"/>
@@ -776,7 +779,7 @@
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5"/>
@@ -798,7 +801,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5"/>
@@ -820,7 +823,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="5"/>
@@ -842,7 +845,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="5"/>
@@ -864,7 +867,7 @@
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5"/>
@@ -886,7 +889,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="5"/>
@@ -908,7 +911,7 @@
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="5"/>
@@ -930,7 +933,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="5"/>
@@ -952,7 +955,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="5"/>
@@ -974,7 +977,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="5"/>
@@ -996,7 +999,7 @@
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="5"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F896C3A-4361-4061-8830-4DC187DB2116}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A9CDB-478F-43E8-A0F6-3304335DAC5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -253,14 +253,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,21 +598,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -625,7 +625,7 @@
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5"/>
@@ -691,7 +691,7 @@
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5"/>
@@ -713,7 +713,7 @@
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
@@ -757,7 +757,7 @@
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5"/>
@@ -801,7 +801,7 @@
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5"/>
@@ -823,7 +823,7 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="5"/>
@@ -845,7 +845,7 @@
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="5"/>
@@ -867,7 +867,7 @@
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5"/>
@@ -889,7 +889,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="5"/>
@@ -911,7 +911,7 @@
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="5"/>
@@ -933,7 +933,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="5"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="5"/>
@@ -977,7 +977,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="5"/>
@@ -999,7 +999,7 @@
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="5"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A9CDB-478F-43E8-A0F6-3304335DAC5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C331D8-740F-447A-93E2-90A12BB5E5EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -1009,5 +1009,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.2_Student_A_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C331D8-740F-447A-93E2-90A12BB5E5EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA74CBEF-D544-4164-90B4-52FBC4427382}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -73,63 +73,15 @@
   </si>
   <si>
     <t>Fees Earned</t>
-  </si>
-  <si>
-    <t>6/1</t>
-  </si>
-  <si>
-    <t>6/2</t>
-  </si>
-  <si>
-    <t>6/5</t>
-  </si>
-  <si>
-    <t>6/6</t>
-  </si>
-  <si>
-    <t>6/8</t>
-  </si>
-  <si>
-    <t>6/9</t>
-  </si>
-  <si>
-    <t>6/10</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>6/16</t>
-  </si>
-  <si>
-    <t>6/17</t>
-  </si>
-  <si>
-    <t>6/20</t>
-  </si>
-  <si>
-    <t>6/21</t>
-  </si>
-  <si>
-    <t>6/24</t>
-  </si>
-  <si>
-    <t>6/25</t>
-  </si>
-  <si>
-    <t>6/27</t>
-  </si>
-  <si>
-    <t>6/29</t>
-  </si>
-  <si>
-    <t>6/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -259,7 +211,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,8 +568,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
+      <c r="A2" s="10">
+        <v>43617</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -634,8 +590,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
+      <c r="A4" s="10">
+        <v>43617</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -656,8 +612,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
+      <c r="A6" s="11">
+        <v>43618</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -678,8 +634,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="11">
+        <v>43621</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -700,8 +656,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
+      <c r="A10" s="11">
+        <v>43622</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -722,8 +678,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
+      <c r="A12" s="11">
+        <v>43624</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -744,8 +700,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
+      <c r="A14" s="11">
+        <v>43625</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -766,8 +722,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
+      <c r="A16" s="11">
+        <v>43626</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -788,8 +744,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
+      <c r="A18" s="11">
+        <v>43629</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
@@ -810,8 +766,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
+      <c r="A20" s="11">
+        <v>43632</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -832,8 +788,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>23</v>
+      <c r="A22" s="11">
+        <v>43633</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -854,8 +810,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
+      <c r="A24" s="11">
+        <v>43636</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -876,8 +832,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
+      <c r="A26" s="11">
+        <v>43637</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -898,8 +854,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>26</v>
+      <c r="A28" s="11">
+        <v>43640</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -920,8 +876,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>27</v>
+      <c r="A30" s="11">
+        <v>43641</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
@@ -942,8 +898,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>28</v>
+      <c r="A32" s="11">
+        <v>43643</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
@@ -964,8 +920,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>29</v>
+      <c r="A34" s="11">
+        <v>43645</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -986,8 +942,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>30</v>
+      <c r="A36" s="11">
+        <v>43646</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
